--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +469,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2209,13 +2239,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AA10" s="45" t="inlineStr"/>
+      <c r="AA10" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AB10" s="50" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="AC10" s="45" t="inlineStr"/>
+      <c r="AC10" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AD10" s="50" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2504,7 +2542,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AF12" s="57" t="inlineStr"/>
+      <c r="AF12" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AG12" s="45" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
@@ -4649,14 +4691,22 @@
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="Z27" s="57" t="inlineStr"/>
+      <c r="Z27" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA27" s="49" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="AB27" s="57" t="inlineStr"/>
-      <c r="AC27" s="45" t="inlineStr"/>
+      <c r="AC27" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AD27" s="57" t="inlineStr">
         <is>
           <t>KRISTEN</t>
@@ -5169,8 +5219,16 @@
         </is>
       </c>
       <c r="AC31" s="45" t="inlineStr"/>
-      <c r="AD31" s="57" t="inlineStr"/>
-      <c r="AE31" s="45" t="inlineStr"/>
+      <c r="AD31" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="AE31" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AF31" s="57" t="inlineStr"/>
       <c r="AG31" s="45" t="inlineStr"/>
     </row>
@@ -5455,7 +5513,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z33" s="57" t="inlineStr"/>
+      <c r="Z33" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA33" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -5937,7 +5999,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AG36" s="45" t="inlineStr"/>
+      <c r="AG36" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -1646,7 +1646,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z6" s="57" t="inlineStr"/>
+      <c r="Z6" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA6" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -5015,7 +5019,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AF29" s="57" t="inlineStr"/>
+      <c r="AF29" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AG29" s="45" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -4569,7 +4569,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AG26" s="45" t="inlineStr"/>
+      <c r="AG26" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -5854,7 +5854,11 @@
         </is>
       </c>
       <c r="AF35" s="57" t="inlineStr"/>
-      <c r="AG35" s="45" t="inlineStr"/>
+      <c r="AG35" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -4105,7 +4105,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T23" s="59" t="inlineStr"/>
+      <c r="T23" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U23" s="54" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4124,14 +4128,22 @@
         </is>
       </c>
       <c r="Z23" s="57" t="inlineStr"/>
-      <c r="AA23" s="45" t="inlineStr"/>
+      <c r="AA23" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AB23" s="57" t="inlineStr"/>
       <c r="AC23" s="49" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="AD23" s="57" t="inlineStr"/>
+      <c r="AD23" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AE23" s="45" t="inlineStr"/>
       <c r="AF23" s="57" t="inlineStr"/>
       <c r="AG23" s="45" t="inlineStr"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\Bulanan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B35D5E-4777-4664-B99C-A6A61032CFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FCF6F8-AAB7-495D-9792-7380CDA43241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1950" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="83">
   <si>
     <t>No.</t>
   </si>
@@ -457,10 +457,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,27 +769,14 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.3">
@@ -1230,8 +1217,12 @@
       <c r="AE5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="8"/>
+      <c r="AF5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1402,11 +1393,11 @@
       <c r="W7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="21"/>
+      <c r="X7" s="20"/>
       <c r="Y7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="20"/>
+      <c r="Z7" s="21"/>
       <c r="AA7" s="12" t="s">
         <v>47</v>
       </c>
@@ -1422,7 +1413,7 @@
       <c r="AE7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF7" s="20"/>
+      <c r="AF7" s="21"/>
       <c r="AG7" s="12" t="s">
         <v>47</v>
       </c>
@@ -1614,7 +1605,7 @@
       <c r="AE9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF9" s="20"/>
+      <c r="AF9" s="21"/>
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -1784,17 +1775,17 @@
       </c>
       <c r="V11" s="22"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="21"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="20"/>
+      <c r="Z11" s="21"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="13" t="s">
         <v>47</v>
       </c>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="20"/>
+      <c r="AD11" s="21"/>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="20"/>
+      <c r="AF11" s="21"/>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -1978,7 +1969,7 @@
         <v>47</v>
       </c>
       <c r="AE13" s="8"/>
-      <c r="AF13" s="20"/>
+      <c r="AF13" s="21"/>
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -2170,7 +2161,7 @@
       <c r="AC15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AD15" s="20" t="s">
+      <c r="AD15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="AE15" s="12" t="s">
@@ -2253,7 +2244,7 @@
       <c r="W16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X16" s="21"/>
+      <c r="X16" s="20"/>
       <c r="Y16" s="18" t="s">
         <v>47</v>
       </c>
@@ -2376,8 +2367,10 @@
       <c r="AE17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="8"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -2469,7 +2462,7 @@
       <c r="AE18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF18" s="20"/>
+      <c r="AF18" s="21"/>
       <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -2856,14 +2849,18 @@
       <c r="AB22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="AD22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="AE22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF22" s="20"/>
+      <c r="AF22" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="AG22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2936,11 +2933,11 @@
         <v>47</v>
       </c>
       <c r="W23" s="11"/>
-      <c r="X23" s="21"/>
+      <c r="X23" s="20"/>
       <c r="Y23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Z23" s="20"/>
+      <c r="Z23" s="21"/>
       <c r="AA23" s="12" t="s">
         <v>47</v>
       </c>
@@ -2956,7 +2953,7 @@
       <c r="AE23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF23" s="20"/>
+      <c r="AF23" s="21"/>
       <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -2975,7 +2972,7 @@
       <c r="E24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="12" t="s">
         <v>47</v>
       </c>
@@ -3023,7 +3020,7 @@
       <c r="W24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="20"/>
       <c r="Y24" s="18" t="s">
         <v>47</v>
       </c>
@@ -3043,7 +3040,7 @@
       <c r="AE24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF24" s="20"/>
+      <c r="AF24" s="21"/>
       <c r="AG24" s="8"/>
     </row>
     <row r="25" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -3336,7 +3333,7 @@
       <c r="AC27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AD27" s="20" t="s">
+      <c r="AD27" s="21" t="s">
         <v>59</v>
       </c>
       <c r="AE27" s="12" t="s">
@@ -3419,7 +3416,7 @@
       <c r="W28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="21"/>
+      <c r="X28" s="20"/>
       <c r="Y28" s="18" t="s">
         <v>47</v>
       </c>
@@ -3441,7 +3438,7 @@
       <c r="AE28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF28" s="20"/>
+      <c r="AF28" s="21"/>
       <c r="AG28" s="12" t="s">
         <v>47</v>
       </c>
@@ -3534,7 +3531,7 @@
       <c r="AC29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AD29" s="20" t="s">
+      <c r="AD29" s="21" t="s">
         <v>59</v>
       </c>
       <c r="AE29" s="12" t="s">
@@ -3597,9 +3594,9 @@
       <c r="U30" s="10"/>
       <c r="V30" s="22"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="21"/>
+      <c r="X30" s="20"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="20"/>
+      <c r="Z30" s="21"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="13" t="s">
         <v>47</v>
@@ -3609,7 +3606,7 @@
         <v>47</v>
       </c>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="20"/>
+      <c r="AF30" s="21"/>
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -3628,7 +3625,7 @@
       <c r="E31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="12" t="s">
         <v>47</v>
       </c>
@@ -3672,7 +3669,7 @@
       <c r="W31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="21"/>
+      <c r="X31" s="20"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="13" t="s">
         <v>47</v>
@@ -3690,7 +3687,7 @@
       <c r="AE31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF31" s="20"/>
+      <c r="AF31" s="21"/>
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -3886,7 +3883,7 @@
       <c r="AE33" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF33" s="20"/>
+      <c r="AF33" s="21"/>
       <c r="AG33" s="12" t="s">
         <v>47</v>
       </c>
@@ -4086,7 +4083,9 @@
       <c r="AE35" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF35" s="20"/>
+      <c r="AF35" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="AG35" s="12" t="s">
         <v>47</v>
       </c>
@@ -4375,7 +4374,7 @@
       <c r="AC38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="20" t="s">
+      <c r="AD38" s="21" t="s">
         <v>59</v>
       </c>
       <c r="AE38" s="12" t="s">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\Bulanan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FCF6F8-AAB7-495D-9792-7380CDA43241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1841648-7E7B-46C2-9BC0-C7FBD85DC471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1950" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="83">
   <si>
     <t>No.</t>
   </si>
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,18 +768,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:AG38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="33" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="18">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="AF1" s="27"/>
       <c r="AG1" s="27"/>
     </row>
-    <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="18">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15.6">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15.6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.6">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.6">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15.6">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15.6">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="AF9" s="21"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15.6">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15.6">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="AF11" s="21"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15.6">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15.6">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="AF13" s="21"/>
       <c r="AG13" s="8"/>
     </row>
-    <row r="14" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15.6">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15.6">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.6">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15.6">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15.6">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15.6">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.6">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.6">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.6">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.6">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="AF23" s="21"/>
       <c r="AG23" s="8"/>
     </row>
-    <row r="24" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.6">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3027,7 +3027,9 @@
       <c r="Z24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AA24" s="8"/>
+      <c r="AA24" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="AB24" s="13" t="s">
         <v>47</v>
       </c>
@@ -3041,9 +3043,11 @@
         <v>47</v>
       </c>
       <c r="AF24" s="21"/>
-      <c r="AG24" s="8"/>
+      <c r="AG24" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.6">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15.6">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.6">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.6">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.6">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.6">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3609,7 +3613,7 @@
       <c r="AF30" s="21"/>
       <c r="AG30" s="8"/>
     </row>
-    <row r="31" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.6">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3690,7 +3694,7 @@
       <c r="AF31" s="21"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.6">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.6">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.6">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15.6">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15.6">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15.6">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4290,7 +4294,7 @@
       </c>
       <c r="AG37" s="8"/>
     </row>
-    <row r="38" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15.6">
       <c r="A38" s="2">
         <v>35</v>
       </c>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -442,6 +470,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5802,7 +5832,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AF33" s="59" t="inlineStr"/>
+      <c r="AF33" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AG33" s="50" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -2925,7 +2925,7 @@
       </c>
       <c r="E15" s="46" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F15" s="51" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="M15" s="47" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="N15" s="52" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="S15" s="48" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="T15" s="54" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="Y15" s="49" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="Z15" s="51" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="AD15" s="59" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="AE15" s="50" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="E27" s="46" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F27" s="51" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="M27" s="47" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="N27" s="52" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="S27" s="48" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="T27" s="54" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="Y27" s="49" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="Z27" s="51" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="AD27" s="59" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="AE27" s="50" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="E29" s="46" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F29" s="51" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="M29" s="47" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="N29" s="52" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="S29" s="48" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="T29" s="54" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="Y29" s="49" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="Z29" s="51" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="AD29" s="59" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="AE29" s="50" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="E38" s="46" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F38" s="51" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="M38" s="47" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="N38" s="52" t="inlineStr">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="S38" s="48" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="T38" s="60" t="inlineStr"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="Y38" s="49" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="Z38" s="51" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="AD38" s="59" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="AE38" s="50" t="inlineStr">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -442,6 +470,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6481,7 +6511,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AG37" s="46" t="inlineStr"/>
+      <c r="AG37" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1" s="1">
       <c r="A38" s="34" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -2709,7 +2709,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="S13" s="48" t="inlineStr"/>
+      <c r="S13" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="T13" s="54" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2727,7 +2731,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Y13" s="49" t="inlineStr"/>
+      <c r="Y13" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Z13" s="51" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2746,7 +2754,11 @@
         </is>
       </c>
       <c r="AE13" s="46" t="inlineStr"/>
-      <c r="AF13" s="59" t="inlineStr"/>
+      <c r="AF13" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AG13" s="46" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="1">
@@ -5501,7 +5513,11 @@
         </is>
       </c>
       <c r="X31" s="58" t="inlineStr"/>
-      <c r="Y31" s="49" t="inlineStr"/>
+      <c r="Y31" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Z31" s="51" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\Bulanan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F25DA-FD14-4C1E-8C13-3C8A89C9B9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE10B18F-EFE7-4B80-9783-FF37F40A280E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:AG38"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -789,7 +789,7 @@
     <col min="31" max="33" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18">
+    <row r="1" spans="1:33" ht="18" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="AF1" s="27"/>
       <c r="AG1" s="27"/>
     </row>
-    <row r="2" spans="1:33" ht="18">
+    <row r="2" spans="1:33" ht="18" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -935,7 +935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.6">
+    <row r="3" spans="1:33" ht="15.6" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
@@ -1032,7 +1032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.6">
+    <row r="4" spans="1:33" ht="15.6" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.6">
+    <row r="5" spans="1:33" ht="15.6" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.6">
+    <row r="6" spans="1:33" ht="15.6" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.6">
+    <row r="7" spans="1:33" ht="15.6" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.6">
+    <row r="8" spans="1:33" ht="15.6" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.6">
+    <row r="9" spans="1:33" ht="15.6" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="AF9" s="21"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:33" ht="15.6">
+    <row r="10" spans="1:33" ht="15.6" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.6">
+    <row r="11" spans="1:33" ht="15.6" customHeight="1">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="AF11" s="21"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="1:33" ht="15.6">
+    <row r="12" spans="1:33" ht="15.6" customHeight="1">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.6">
+    <row r="13" spans="1:33" ht="15.6" customHeight="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AG13" s="8"/>
     </row>
-    <row r="14" spans="1:33" ht="15.6">
+    <row r="14" spans="1:33" ht="15.6" customHeight="1">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.6">
+    <row r="15" spans="1:33" ht="15.6" customHeight="1">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.6">
+    <row r="16" spans="1:33" ht="15.6" customHeight="1">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.6">
+    <row r="17" spans="1:33" ht="15.6" customHeight="1">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.6">
+    <row r="18" spans="1:33" ht="15.6" customHeight="1">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:33" ht="15.6">
+    <row r="19" spans="1:33" ht="15.6" customHeight="1">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.6">
+    <row r="20" spans="1:33" ht="15.6" customHeight="1">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.6">
+    <row r="21" spans="1:33" ht="15.6" customHeight="1">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.6">
+    <row r="22" spans="1:33" ht="15.6" customHeight="1">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.6">
+    <row r="23" spans="1:33" ht="15.6" customHeight="1">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="AF23" s="21"/>
       <c r="AG23" s="8"/>
     </row>
-    <row r="24" spans="1:33" ht="15.6">
+    <row r="24" spans="1:33" ht="15.6" customHeight="1">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.6">
+    <row r="25" spans="1:33" ht="15.6" customHeight="1">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.6">
+    <row r="26" spans="1:33" ht="15.6" customHeight="1">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.6">
+    <row r="27" spans="1:33" ht="15.6" customHeight="1">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.6">
+    <row r="28" spans="1:33" ht="15.6" customHeight="1">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.6">
+    <row r="29" spans="1:33" ht="15.6" customHeight="1">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.6">
+    <row r="30" spans="1:33" ht="15.6" customHeight="1">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="AF30" s="21"/>
       <c r="AG30" s="8"/>
     </row>
-    <row r="31" spans="1:33" ht="15.6">
+    <row r="31" spans="1:33" ht="15.6" customHeight="1">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="AF31" s="21"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:33" ht="15.6">
+    <row r="32" spans="1:33" ht="15.6" customHeight="1">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.6">
+    <row r="33" spans="1:33" ht="15.6" customHeight="1">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15.6">
+    <row r="34" spans="1:33" ht="15.6" customHeight="1">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.6">
+    <row r="35" spans="1:33" ht="15.6" customHeight="1">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.6">
+    <row r="36" spans="1:33" ht="15.6" customHeight="1">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.6">
+    <row r="37" spans="1:33" ht="15.6" customHeight="1">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.6">
+    <row r="38" spans="1:33" ht="15.6" customHeight="1">
       <c r="A38" s="2">
         <v>35</v>
       </c>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -442,6 +470,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -2741,7 +2741,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AA13" s="46" t="inlineStr"/>
+      <c r="AA13" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AB13" s="51" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -5446,7 +5446,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F31" s="59" t="inlineStr"/>
+      <c r="F31" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G31" s="50" t="inlineStr">
         <is>
           <t>ü</t>
@@ -5478,7 +5482,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N31" s="61" t="inlineStr"/>
+      <c r="N31" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O31" s="53" t="inlineStr">
         <is>
           <t>ü</t>
@@ -5504,7 +5512,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T31" s="60" t="inlineStr"/>
+      <c r="T31" s="54" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U31" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -5549,7 +5561,11 @@
         </is>
       </c>
       <c r="AF31" s="59" t="inlineStr"/>
-      <c r="AG31" s="46" t="inlineStr"/>
+      <c r="AG31" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="1">
       <c r="A32" s="34" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -1783,7 +1783,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="O7" s="47" t="inlineStr"/>
+      <c r="O7" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="P7" s="54" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -267,39 +267,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -470,8 +442,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,24 +788,24 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.6640625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="39.5546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="3" max="4"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="6" max="12"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="14" max="18"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="20" max="24"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="26" max="29"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="31" max="33"/>
+    <col width="5.109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="43.21875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="3" max="4"/>
+    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="6" max="12"/>
+    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="14" max="18"/>
+    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="20" max="24"/>
+    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="26" max="29"/>
+    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="31" max="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -442,6 +470,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5523,7 +5553,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AC31" s="46" t="inlineStr"/>
+      <c r="AC31" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AD31" s="51" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -5161,7 +5161,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AF28" s="59" t="inlineStr"/>
+      <c r="AF28" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AG28" s="50" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -817,25 +817,25 @@
   </sheetPr>
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="43.21875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="3" max="4"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="6" max="12"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="14" max="18"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="20" max="24"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="26" max="29"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="1" min="31" max="33"/>
+    <col width="4.6640625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="39.5546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="3" max="4"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="6" max="12"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="14" max="18"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
+    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="20" max="24"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
+    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="26" max="29"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
+    <col width="8.88671875" bestFit="1" customWidth="1" style="1" min="31" max="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -817,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y3" sqref="A1:AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -4342,7 +4342,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z23" s="59" t="inlineStr"/>
+      <c r="Z23" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA23" s="50" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -442,6 +470,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -3719,7 +3719,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AE19" s="46" t="inlineStr"/>
+      <c r="AE19" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AF19" s="51" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -36,10 +40,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="14"/>
-    </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
     </font>
     <font>
       <sz val="12"/>
@@ -302,12 +302,77 @@
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,71 +383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -434,28 +434,28 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -818,7 +818,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:AG38"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-1 (26 Juli 2021 - 29 Agustus 2021).xlsx
@@ -3556,7 +3556,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AC18" s="46" t="inlineStr"/>
+      <c r="AC18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AD18" s="51" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3567,8 +3571,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="AF18" s="59" t="inlineStr"/>
-      <c r="AG18" s="46" t="inlineStr"/>
+      <c r="AF18" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="AG18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="1">
       <c r="A19" s="34" t="n">
